--- a/architecture/class structure/class_structure_WFS.xlsx
+++ b/architecture/class structure/class_structure_WFS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Doutorado\Defesa\Projeto\vlc_simulator\architecture\class structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A041B-E48B-474B-A168-231FA8C13DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A7347-BB06-4989-9F17-07A8F449FB42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="2660" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="qc" sheetId="1" r:id="rId1"/>
-    <sheet name="Dog#Animal" sheetId="2" r:id="rId2"/>
-    <sheet name="all_config" sheetId="4" r:id="rId3"/>
+    <sheet name="Quadcells" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="5" r:id="rId2"/>
+    <sheet name="Reconstruction" sheetId="6" r:id="rId3"/>
+    <sheet name="all_config" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>variables</t>
   </si>
@@ -77,42 +78,9 @@
     <t>__init__</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>Constructor</t>
   </si>
   <si>
-    <t>Stores name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>"dog"</t>
-  </si>
-  <si>
-    <t>Type for that class.</t>
-  </si>
-  <si>
-    <t>dogName</t>
-  </si>
-  <si>
-    <t>dogAge</t>
-  </si>
-  <si>
-    <t>barkSound, dogAge[age], dogName[name]</t>
-  </si>
-  <si>
-    <t>barkSound</t>
-  </si>
-  <si>
-    <t>Bark sound.</t>
-  </si>
-  <si>
     <t>x_pos</t>
   </si>
   <si>
@@ -143,23 +111,201 @@
     <t>indicates if has microlens or not</t>
   </si>
   <si>
-    <t>x, y, type, has_microlens</t>
+    <t>rot_flag</t>
+  </si>
+  <si>
+    <t>nonlin</t>
+  </si>
+  <si>
+    <t>turb_flag</t>
+  </si>
+  <si>
+    <t>iseed</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>print_ctrl</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>grava_arquivos</t>
+  </si>
+  <si>
+    <t>flag_V_QC</t>
+  </si>
+  <si>
+    <t>matriz_ortogonal</t>
+  </si>
+  <si>
+    <t>flag_amostragem</t>
+  </si>
+  <si>
+    <t>flag_experimental</t>
+  </si>
+  <si>
+    <t>flag_interferencia</t>
+  </si>
+  <si>
+    <t>flag_linear_resp_QC</t>
+  </si>
+  <si>
+    <t>flag_sigm_auto_resp_QC</t>
+  </si>
+  <si>
+    <t>flag_poli_resp_QC</t>
+  </si>
+  <si>
+    <t>flag_spice</t>
+  </si>
+  <si>
+    <t>flag_XQC_YQC</t>
+  </si>
+  <si>
+    <t>flag_Vout_QC</t>
+  </si>
+  <si>
+    <t>flag_grava_outx_spice</t>
+  </si>
+  <si>
+    <t>flag_defocus</t>
+  </si>
+  <si>
+    <t>oxtl_flag</t>
+  </si>
+  <si>
+    <t>flag_ruido</t>
+  </si>
+  <si>
+    <t>#all_variables</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>dX</t>
+  </si>
+  <si>
+    <t>dY</t>
+  </si>
+  <si>
+    <t>dXg</t>
+  </si>
+  <si>
+    <t>dYg</t>
+  </si>
+  <si>
+    <t>dXqg</t>
+  </si>
+  <si>
+    <t>dYqg</t>
+  </si>
+  <si>
+    <t>Xr</t>
+  </si>
+  <si>
+    <t>Yr</t>
+  </si>
+  <si>
+    <t>dXq</t>
+  </si>
+  <si>
+    <t>dYq</t>
+  </si>
+  <si>
+    <t>outx_cal</t>
+  </si>
+  <si>
+    <t>outy_cal</t>
+  </si>
+  <si>
+    <t>dXql</t>
+  </si>
+  <si>
+    <t>dYql</t>
+  </si>
+  <si>
+    <t>dWx</t>
+  </si>
+  <si>
+    <t>dWy</t>
+  </si>
+  <si>
+    <t>Wf1</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Wrms</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>yb</t>
+  </si>
+  <si>
+    <t>x_edge</t>
+  </si>
+  <si>
+    <t>z_basis</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t>nz</t>
+  </si>
+  <si>
+    <t>mz</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>jx</t>
+  </si>
+  <si>
+    <t>jy</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>outx_l</t>
+  </si>
+  <si>
+    <t>x, y, qc_type, has_microlens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,13 +318,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,9 +374,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -207,11 +387,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -241,22 +641,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A68F048D-B54D-4EF0-9B61-63DD5BFE04DC}" name="Tabela5" displayName="Tabela5" ref="A1:G12" totalsRowShown="0">
-  <autoFilter ref="A1:G12" xr:uid="{52FAA7DA-58C3-40AE-B51C-E1635CCC6633}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F80FCEF-03F7-4B72-B770-A6415564572D}" name="Tabela2" displayName="Tabela2" ref="A1:G23" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="A1:G23" xr:uid="{D97E5251-2569-431D-B069-8A0575070288}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{98391520-7E5A-4D5F-8876-2112494AE86E}" name="variables"/>
-    <tableColumn id="2" xr3:uid="{8245EA61-F721-480A-B57E-AD77161AF6B8}" name="default"/>
-    <tableColumn id="3" xr3:uid="{3FF4B3CA-8B8A-4078-869B-A40E9DD4D182}" name="comment"/>
-    <tableColumn id="4" xr3:uid="{0220493A-AFB8-473C-8AD1-4D26EF875716}" name="datatype"/>
-    <tableColumn id="5" xr3:uid="{F4432AD0-B44A-41AF-A566-0A4E27FC4942}" name="methods"/>
-    <tableColumn id="6" xr3:uid="{A755412E-A2EB-405E-9F48-D8D1EBED76B7}" name="docstring"/>
-    <tableColumn id="7" xr3:uid="{73BAA2D2-947B-4572-AD28-B0552252DB93}" name="argslist"/>
+    <tableColumn id="1" xr3:uid="{CFC5A844-5070-4A4B-AD9F-D502E9D39D83}" name="variables" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0685ABC4-ECDD-43E0-9E2E-60E16ABA63AB}" name="default" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E3CBD8E7-C3AE-45A3-9638-AFCC24A116B4}" name="comment" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{28BE2F96-6CAF-4A90-92E4-78EF4A921F0C}" name="datatype" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{64AEC453-04C1-4C23-B7E3-03CD50B81D2E}" name="methods" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{304E91B3-BB80-4FA4-B2A5-D16273C58822}" name="docstring" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{7F0408AE-BD70-4C5D-ABCD-2A042A458005}" name="argslist" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31DD7C43-0EA5-47D3-86C9-69E2A8398258}" name="Tabela5" displayName="Tabela5" ref="A1:G39" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G39" xr:uid="{47F872D5-1FFB-4ADC-92D6-EE515FD9BF1E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{0B66C8B0-E3D5-4F8E-8D9E-9DFD49BD828E}" name="variables"/>
+    <tableColumn id="2" xr3:uid="{3C338C02-77B1-4469-85E6-020EFA38C0E8}" name="default"/>
+    <tableColumn id="3" xr3:uid="{E1C7AA13-BE24-4B32-B237-3A830CBD90CD}" name="comment"/>
+    <tableColumn id="4" xr3:uid="{964D36EE-742F-4FAB-9A58-EAFF773404B8}" name="datatype" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{9E110DFF-3A40-4F5F-A10B-16EE0F8F9DD8}" name="methods"/>
+    <tableColumn id="6" xr3:uid="{0663F009-AD79-4CB7-9379-8AA87D981A7C}" name="docstring"/>
+    <tableColumn id="7" xr3:uid="{934F4CFD-6274-4D0E-ADB7-BC82C8D30DAE}" name="argslist"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4AB5FF24-B55F-4FAA-8AF7-A4E0EE6ECAE5}" name="all_config_table" displayName="all_config_table" ref="A1:A7" totalsRowShown="0">
   <autoFilter ref="A1:A7" xr:uid="{01493A64-5335-44D0-8ED4-958019048472}"/>
   <tableColumns count="1">
@@ -531,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,113 +988,118 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{DC99FABF-B02E-4C88-BA23-E764980B0094}">
       <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
@@ -692,141 +1113,390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B325B54B-B2B6-4AAA-8BC6-3935CF1C4FAF}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5FD913-D4AA-4E81-84B6-878D75AB5D4C}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
+      <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12" xr:uid="{0866517E-AA7B-4DDF-98C9-460A94508D7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23" xr:uid="{40F01982-59D9-4666-B3CA-1B310AB2E2E8}">
       <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -834,6 +1504,573 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68369752-F2C0-4E76-8905-7947BB4EFCF2}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{3B5B9E92-4EB3-48C5-91B4-8E3FB86BCA8D}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A597D46D-180B-4DAE-AA3F-6EEC36DE0BB4}">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -870,7 +2107,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -879,11 +2116,11 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/architecture/class structure/class_structure_WFS.xlsx
+++ b/architecture/class structure/class_structure_WFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Doutorado\Defesa\Projeto\vlc_simulator\architecture\class structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A7347-BB06-4989-9F17-07A8F449FB42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC493708-8B0B-4581-A55B-985929653B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="2660" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadcells" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,14 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -374,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -393,7 +385,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,49 +408,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B9BD5"/>
-          <bgColor rgb="FF5B9BD5"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -556,6 +504,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -611,6 +560,48 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -641,23 +632,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F80FCEF-03F7-4B72-B770-A6415564572D}" name="Tabela2" displayName="Tabela2" ref="A1:G23" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F80FCEF-03F7-4B72-B770-A6415564572D}" name="Tabela2" displayName="Tabela2" ref="A1:G23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:G23" xr:uid="{D97E5251-2569-431D-B069-8A0575070288}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CFC5A844-5070-4A4B-AD9F-D502E9D39D83}" name="variables" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{0685ABC4-ECDD-43E0-9E2E-60E16ABA63AB}" name="default" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E3CBD8E7-C3AE-45A3-9638-AFCC24A116B4}" name="comment" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{28BE2F96-6CAF-4A90-92E4-78EF4A921F0C}" name="datatype" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{64AEC453-04C1-4C23-B7E3-03CD50B81D2E}" name="methods" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{304E91B3-BB80-4FA4-B2A5-D16273C58822}" name="docstring" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{7F0408AE-BD70-4C5D-ABCD-2A042A458005}" name="argslist" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CFC5A844-5070-4A4B-AD9F-D502E9D39D83}" name="variables" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0685ABC4-ECDD-43E0-9E2E-60E16ABA63AB}" name="default" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E3CBD8E7-C3AE-45A3-9638-AFCC24A116B4}" name="comment" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{28BE2F96-6CAF-4A90-92E4-78EF4A921F0C}" name="datatype" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{64AEC453-04C1-4C23-B7E3-03CD50B81D2E}" name="methods" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{304E91B3-BB80-4FA4-B2A5-D16273C58822}" name="docstring" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7F0408AE-BD70-4C5D-ABCD-2A042A458005}" name="argslist" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31DD7C43-0EA5-47D3-86C9-69E2A8398258}" name="Tabela5" displayName="Tabela5" ref="A1:G39" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31DD7C43-0EA5-47D3-86C9-69E2A8398258}" name="Tabela5" displayName="Tabela5" ref="A1:G39" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:G39" xr:uid="{47F872D5-1FFB-4ADC-92D6-EE515FD9BF1E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0B66C8B0-E3D5-4F8E-8D9E-9DFD49BD828E}" name="variables"/>
@@ -948,7 +939,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1107,397 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5FD913-D4AA-4E81-84B6-878D75AB5D4C}">
   <dimension ref="A1:G23"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23" xr:uid="{40F01982-59D9-4666-B3CA-1B310AB2E2E8}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68369752-F2C0-4E76-8905-7947BB4EFCF2}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -1156,7 +1538,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -1177,7 +1559,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
@@ -1192,7 +1574,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -1207,14 +1589,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1222,397 +1604,6 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23" xr:uid="{40F01982-59D9-4666-B3CA-1B310AB2E2E8}">
-      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68369752-F2C0-4E76-8905-7947BB4EFCF2}">
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="7">
